--- a/geeksforgeeks/array/PROBLEMS_ARRAY.xlsx
+++ b/geeksforgeeks/array/PROBLEMS_ARRAY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="222">
   <si>
     <t>PROBLEMS</t>
   </si>
@@ -57,9 +57,6 @@
     <t>dp... awesome...</t>
   </si>
   <si>
-    <t xml:space="preserve">done </t>
-  </si>
-  <si>
     <t>d_and_c</t>
   </si>
   <si>
@@ -607,6 +604,84 @@
   </si>
   <si>
     <t>LAST UPDATED : 17-9-16</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>to code.. Easy one</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>to code… nice trick</t>
+  </si>
+  <si>
+    <t>to code.. Basic binary search.. And other method is also nice</t>
+  </si>
+  <si>
+    <t>to code… implement what you thought</t>
+  </si>
+  <si>
+    <t>it's of no use.. Just logic for generating all subarrays and subsequences</t>
+  </si>
+  <si>
+    <t>to code… just implement what you thought.. Nice</t>
+  </si>
+  <si>
+    <t>to code… awesome trick</t>
+  </si>
+  <si>
+    <t>to code.. Easy one.. Try its variation which you have face in the interview</t>
+  </si>
+  <si>
+    <t>to code.. Nice tricky</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>already done… find pivot and then return next element</t>
+  </si>
+  <si>
+    <t>just sort the pairs from start time and then check overlaps</t>
+  </si>
+  <si>
+    <t>just traverse all the elements in parallel and use the logic of k sorted arrays</t>
+  </si>
+  <si>
+    <t>same logic as finding triplet (a+b=c).. Here it is for c^2=a^2+b^2</t>
+  </si>
+  <si>
+    <t>strings</t>
+  </si>
+  <si>
+    <t>heap</t>
+  </si>
+  <si>
+    <t>to code… implement mentioned in the doc in the folder (same you thought)</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>to code…This is the extension where buy-sell can be done any number of times</t>
+  </si>
+  <si>
+    <t>to code… implement your idea</t>
+  </si>
+  <si>
+    <t>to code.. Basic logic.. Easy</t>
+  </si>
+  <si>
+    <t>to code… both the logics are nice..</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to code.. Awesome ! </t>
   </si>
 </sst>
 </file>
@@ -703,7 +778,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -715,9 +790,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
@@ -725,6 +797,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Default" xfId="1"/>
@@ -1025,23 +1107,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="104.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="96.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="12.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="B1" s="10"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="12.75">
@@ -1057,41 +1141,41 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="4">
-        <f>COUNTIFS(A4:A999,"&lt;&gt;",B4:B999,"")</f>
-        <v>47</v>
-      </c>
-      <c r="C3" s="9" t="str">
-        <f>"TO CODE: "&amp;COUNTIFS(C4:C997,"to code*")</f>
-        <v>TO CODE: 0</v>
+        <f>COUNTIFS(A4:A998,"&lt;&gt;",B4:B998,"")</f>
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>"TO CODE: "&amp;COUNTIFS(C4:C996,"to code*")</f>
+        <v>TO CODE: 18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75">
+      <c r="A5" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75">
+      <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75">
-      <c r="A6" s="7" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75">
+      <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="12.75">
-      <c r="A7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1099,10 +1183,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75">
-      <c r="A8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1110,26 +1194,26 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75">
+      <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12.75">
+      <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.75">
-      <c r="A11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1137,58 +1221,58 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75">
+      <c r="A13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75">
+      <c r="A14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12.75">
+      <c r="A15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.75">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12.75">
+      <c r="A16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12.75">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75">
+      <c r="A17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75">
+      <c r="A18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75">
-      <c r="A18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1196,26 +1280,26 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75">
+      <c r="A20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.75">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75">
+      <c r="A21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75">
-      <c r="A21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1223,42 +1307,42 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.75">
+      <c r="A23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.75">
+      <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12.75">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12.75">
+      <c r="A25" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.75">
+      <c r="A26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75">
-      <c r="A26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1266,26 +1350,26 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.75">
+      <c r="A28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.75">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.75">
+      <c r="A29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75">
-      <c r="A29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1293,10 +1377,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75">
-      <c r="A30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1304,10 +1388,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75">
-      <c r="A31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1315,34 +1399,34 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.75">
+      <c r="A33" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.75">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.75">
+      <c r="A34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.75">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.75">
+      <c r="A35" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12.75">
-      <c r="A35" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1350,122 +1434,122 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.75">
+      <c r="A37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="12.75">
-      <c r="A37" s="7" t="s">
+      <c r="B37" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.75">
+      <c r="A38" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="12.75">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.75">
+      <c r="A39" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="12.75">
-      <c r="A39" s="7" t="s">
+      <c r="B39" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.75">
+      <c r="A40" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="12.75">
-      <c r="A40" s="7" t="s">
+      <c r="B40" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.75">
+      <c r="A41" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="12.75">
-      <c r="A41" s="7" t="s">
+      <c r="B41" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="12.75">
+      <c r="A42" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="12.75">
-      <c r="A42" s="7" t="s">
+      <c r="B42" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.75">
+      <c r="A43" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="12.75">
-      <c r="A43" s="7" t="s">
+      <c r="B43" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.75">
+      <c r="A44" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12.75">
-      <c r="A44" s="7" t="s">
+      <c r="B44" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.75">
+      <c r="A45" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="12.75">
-      <c r="A45" s="7" t="s">
+      <c r="B45" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.75">
+      <c r="A46" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="12.75">
-      <c r="A46" s="7" t="s">
+      <c r="B46" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12.75">
+      <c r="A47" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="12.75">
-      <c r="A47" s="7" t="s">
+      <c r="B47" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.75">
+      <c r="A48" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="12.75">
-      <c r="A48" s="7" t="s">
+      <c r="B48" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="12.75">
+      <c r="A49" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="12.75">
-      <c r="A49" s="7" t="s">
+      <c r="B49" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.75">
+      <c r="A50" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="12.75">
-      <c r="A50" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1473,10 +1557,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75">
-      <c r="A51" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1484,26 +1568,26 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12.75">
+      <c r="A53" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="12.75">
-      <c r="A53" s="7" t="s">
+      <c r="B53" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.75">
+      <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="12.75">
-      <c r="A54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1511,66 +1595,66 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.75">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.75">
+      <c r="A56" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="12.75">
-      <c r="A56" s="7" t="s">
+      <c r="B56" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="12.75">
+      <c r="A57" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="12.75">
-      <c r="A57" s="7" t="s">
+      <c r="B57" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.75">
+      <c r="A58" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="12.75">
-      <c r="A58" s="7" t="s">
+      <c r="B58" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12.75">
+      <c r="A59" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="12.75">
-      <c r="A59" s="7" t="s">
+      <c r="B59" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12.75">
+      <c r="A60" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="12.75">
-      <c r="A60" s="7" t="s">
+      <c r="B60" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12.75">
+      <c r="A61" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="12.75">
-      <c r="A61" s="7" t="s">
+      <c r="B61" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.75">
+      <c r="A62" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="12.75">
-      <c r="A62" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -1578,10 +1662,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.75">
-      <c r="A63" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -1589,64 +1673,64 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.75">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="12.75">
+      <c r="A65" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="12.75">
-      <c r="A65" s="7" t="s">
+      <c r="B65" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12.75">
+      <c r="A66" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12.75">
+      <c r="A67" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="12.75">
+      <c r="A68" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="12.75">
+      <c r="A69" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="12.75">
-      <c r="A66" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="12.75">
-      <c r="A67" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="12.75">
-      <c r="A68" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="12.75">
-      <c r="A69" s="7" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="12.75">
+      <c r="A70" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="12.75">
-      <c r="A70" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -1654,26 +1738,26 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="12.75">
+      <c r="A72" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="12.75">
-      <c r="A72" s="7" t="s">
+      <c r="B72" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="12.75">
+      <c r="A73" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="12.75">
-      <c r="A73" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -1681,131 +1765,149 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.2" customHeight="1">
+      <c r="A75" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="B75" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="12"/>
+    </row>
+    <row r="76" spans="1:3" ht="12.75">
+      <c r="A76" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12.75">
+      <c r="A77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="12.75">
+      <c r="A78" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="12.75">
+      <c r="A79" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.75">
+      <c r="A80" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.75">
+      <c r="A81" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.75">
+      <c r="A82" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="12.75">
+      <c r="A83" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="12.75">
+      <c r="A84" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.75">
+      <c r="A85" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="12.75">
+      <c r="A86" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="12.75">
+      <c r="A87" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.2" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:3" ht="12.75">
-      <c r="A76" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="12.75">
-      <c r="A77" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="12.75">
-      <c r="A78" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="12.75">
-      <c r="A79" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="12.75">
-      <c r="A80" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="12.75">
-      <c r="A81" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="12.75">
-      <c r="A82" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="12.75">
-      <c r="A83" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="12.75">
-      <c r="A84" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="12.75">
-      <c r="A85" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="12.75">
-      <c r="A86" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="12.75">
-      <c r="A87" s="7" t="s">
+    <row r="88" spans="1:3" ht="12.75">
+      <c r="A88" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="12.75">
-      <c r="A88" s="7" t="s">
-        <v>164</v>
+      <c r="B88" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.75">
-      <c r="A89" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="A89" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -1813,10 +1915,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.75">
-      <c r="A90" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="A90" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -1824,53 +1926,59 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.75">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.75">
+      <c r="A92" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="2" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="12.75">
+      <c r="A93" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12.75">
+      <c r="A94" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12.75">
-      <c r="A92" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="12.75">
-      <c r="A93" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="12.75">
-      <c r="A94" s="7" t="s">
+    <row r="95" spans="1:3" ht="12.75">
+      <c r="A95" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B95" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="12.75">
-      <c r="A95" s="7" t="s">
+    <row r="96" spans="1:3" ht="12.75">
+      <c r="A96" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="12.75">
-      <c r="A96" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -1878,10 +1986,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.75">
-      <c r="A97" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="A97" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -1889,10 +1997,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="12.75">
-      <c r="A98" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="A98" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -1900,15 +2008,18 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.75">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="12.75">
+      <c r="A100" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="12.75">
-      <c r="A100" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -1916,42 +2027,42 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="12.75">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.75">
+      <c r="A102" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="12.75">
-      <c r="A102" s="7" t="s">
+      <c r="B102" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="12.75">
+      <c r="A103" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="12.75">
-      <c r="A103" s="7" t="s">
+      <c r="B103" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="12.75">
+      <c r="A104" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="12.75">
-      <c r="A104" s="7" t="s">
+    </row>
+    <row r="105" spans="1:3" ht="12.75">
+      <c r="A105" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="12.75">
-      <c r="A105" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -1959,107 +2070,131 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.75">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="12.75">
+      <c r="A107" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="12.75">
-      <c r="A107" s="7" t="s">
+      <c r="B107" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="12.75">
+      <c r="A108" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="12.75">
-      <c r="A108" s="7" t="s">
+    <row r="109" spans="1:3" ht="15" customHeight="1">
+      <c r="A109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" customHeight="1">
+      <c r="A110" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" customHeight="1">
+      <c r="A111" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1">
-      <c r="A110" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1">
-      <c r="A111" s="8" t="s">
+    <row r="112" spans="1:3" ht="15" customHeight="1">
+      <c r="A112" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1">
-      <c r="A112" s="8" t="s">
+      <c r="C112" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" customHeight="1">
+      <c r="A113" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" customHeight="1">
-      <c r="A113" s="8" t="s">
+      <c r="B113" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" customHeight="1">
+      <c r="A114" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1">
-      <c r="A114" s="8" t="s">
+      <c r="B114" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" customHeight="1">
+      <c r="A115" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1">
-      <c r="A115" s="8" t="s">
+      <c r="B115" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" customHeight="1">
+      <c r="A116" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" customHeight="1">
-      <c r="A116" s="8" t="s">
+    </row>
+    <row r="117" spans="1:3" ht="15" customHeight="1">
+      <c r="A117" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" customHeight="1">
-      <c r="A117" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" customHeight="1">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="B118" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="15" customHeight="1">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" customHeight="1">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -2067,31 +2202,34 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" customHeight="1">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="122" spans="1:3" ht="15" customHeight="1">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="C122" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="B123" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="15" customHeight="1">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -2099,321 +2237,394 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" customHeight="1">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" customHeight="1">
+      <c r="A126" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" customHeight="1">
+      <c r="A127" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" customHeight="1">
+      <c r="A128" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" customHeight="1">
+      <c r="A129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" customHeight="1">
+      <c r="A130" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" customHeight="1">
+      <c r="A131" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" customHeight="1">
+      <c r="A132" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" customHeight="1">
+      <c r="A133" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" customHeight="1">
+      <c r="A134" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" customHeight="1">
+      <c r="A135" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" customHeight="1">
-      <c r="A126" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="2" t="s">
+    <row r="136" spans="1:3" ht="15" customHeight="1">
+      <c r="A136" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" customHeight="1">
+      <c r="A137" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" customHeight="1">
+      <c r="A138" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1">
+      <c r="A139" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1">
-      <c r="A127" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1">
-      <c r="A129" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15" customHeight="1">
-      <c r="A130" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15" customHeight="1">
-      <c r="A131" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15" customHeight="1">
-      <c r="A133" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1">
-      <c r="A134" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1">
-      <c r="A135" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1">
-      <c r="A136" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="2" t="s">
+    <row r="140" spans="1:3" ht="15" customHeight="1">
+      <c r="A140" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1">
-      <c r="A138" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1">
-      <c r="A139" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="2" t="s">
+    <row r="141" spans="1:3" ht="15" customHeight="1">
+      <c r="A141" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" customHeight="1">
+      <c r="A142" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1">
-      <c r="A140" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1">
-      <c r="A141" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1">
-      <c r="A142" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="143" spans="1:3" ht="15" customHeight="1">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" customHeight="1">
+      <c r="A144" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" customHeight="1">
+      <c r="A145" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1">
+      <c r="A146" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" customHeight="1">
+      <c r="A147" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" customHeight="1">
+      <c r="A148" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" customHeight="1">
+      <c r="A149" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" customHeight="1">
+      <c r="A150" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" customHeight="1">
+      <c r="A151" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" customHeight="1">
+      <c r="A152" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" customHeight="1">
+      <c r="A153" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" customHeight="1">
+      <c r="A154" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" customHeight="1">
+      <c r="A155" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1">
-      <c r="A144" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1">
-      <c r="A145" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1">
-      <c r="A146" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1">
-      <c r="A147" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1">
-      <c r="A148" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1">
-      <c r="A150" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1">
-      <c r="A151" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1">
-      <c r="A152" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1">
-      <c r="A153" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1">
-      <c r="A154" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1">
-      <c r="A155" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="156" spans="1:3" ht="15" customHeight="1">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="157" spans="1:3" ht="15" customHeight="1">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="C157" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="B158" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="160" spans="1:3" ht="15" customHeight="1">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="B160" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="C161" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" customHeight="1">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="B163" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" customHeight="1">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="B165" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="166" spans="1:3" ht="15" customHeight="1">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15" customHeight="1">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="C167" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="168" spans="1:3" ht="15" customHeight="1">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="15" customHeight="1">
-      <c r="A169" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>194</v>
+      <c r="B168" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2535,61 +2746,60 @@
     <hyperlink ref="A115" r:id="rId112" tooltip="Permanent link to Smallest subarray with sum greater than a given value" display="http://www.geeksforgeeks.org/minimum-length-subarray-sum-greater-given-value/"/>
     <hyperlink ref="A116" r:id="rId113" tooltip="Permanent link to Sort an array according to the order defined by another array" display="http://www.geeksforgeeks.org/sort-array-according-order-defined-another-array/"/>
     <hyperlink ref="A117" r:id="rId114" tooltip="Permanent link to Maximum Sum Path in Two Arrays" display="http://www.geeksforgeeks.org/maximum-sum-path-across-two-arrays/"/>
-    <hyperlink ref="A118" r:id="rId115" display="http://www.geeksforgeeks.org/check-given-array-contains-duplicate-elements-within-k-distance/"/>
-    <hyperlink ref="A119" r:id="rId116" tooltip="Permanent link to Sort an array in wave form" display="http://www.geeksforgeeks.org/sort-array-wave-form-2/"/>
-    <hyperlink ref="A120" r:id="rId117" tooltip="Permanent link to K’th Smallest/Largest Element in Unsorted Array" display="http://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/"/>
-    <hyperlink ref="A121" r:id="rId118" display="http://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array-set-2-expected-linear-time/"/>
-    <hyperlink ref="A122" r:id="rId119" tooltip="Permanent link to K’th Smallest/Largest Element in Unsorted Array | Set 3 (Worst Case Linear Time)" display="http://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array-set-3-worst-case-linear-time/"/>
-    <hyperlink ref="A123" r:id="rId120" tooltip="Permanent link to Find Index of 0 to be replaced with 1 to get longest continuous sequence of 1s in a binary array" display="http://www.geeksforgeeks.org/find-index-0-replaced-1-get-longest-continuous-sequence-1s-binary-array/"/>
-    <hyperlink ref="A124" r:id="rId121" tooltip="Permanent link to Find the closest pair from two sorted arrays" display="http://www.geeksforgeeks.org/given-two-sorted-arrays-number-x-find-pair-whose-sum-closest-x/"/>
-    <hyperlink ref="A125" r:id="rId122" tooltip="Permanent link to Given a sorted array and a number x, find the pair in array whose sum is closest to x" display="http://geeksquiz.com/given-sorted-array-number-x-find-pair-array-whose-sum-closest-x/"/>
-    <hyperlink ref="A126" r:id="rId123" tooltip="Permanent link to Count 1’s in a sorted binary array" display="http://geeksquiz.com/count-1s-sorted-binary-array/"/>
-    <hyperlink ref="A127" r:id="rId124" tooltip="Permanent link to Print All Distinct Elements of a given integer array" display="http://geeksquiz.com/print-distinct-elements-given-integer-array/"/>
-    <hyperlink ref="A128" r:id="rId125" tooltip="Permanent link to Construct an array from its pair-sum array" display="http://geeksquiz.com/construct-array-pair-sum-array/"/>
-    <hyperlink ref="A129" r:id="rId126" tooltip="Permanent link to Find common elements in three sorted arrays" display="http://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/"/>
-    <hyperlink ref="A130" r:id="rId127" tooltip="Permanent link to Find the first repeating element in an array of integers" display="http://www.geeksforgeeks.org/find-first-repeating-element-array-integers/"/>
-    <hyperlink ref="A131" r:id="rId128" tooltip="Permanent link to Find the smallest positive integer value that cannot be represented as sum of any subset of a given array" display="http://www.geeksforgeeks.org/find-smallest-value-represented-sum-subset-given-array/"/>
-    <hyperlink ref="A132" r:id="rId129" tooltip="Permanent link to Rearrange an array such that ‘arr[j]’ becomes ‘i’ if  ‘arr[i]’ is ‘j’" display="http://www.geeksforgeeks.org/rearrange-array-arrj-becomes-arri-j/"/>
-    <hyperlink ref="A133" r:id="rId130" tooltip="Permanent link to Find position of an element in a sorted array of infinite numbers" display="http://www.geeksforgeeks.org/find-position-element-sorted-array-infinite-numbers/"/>
-    <hyperlink ref="A134" r:id="rId131" tooltip="Permanent link to Can QuickSort be implemented in O(nLogn) worst case time complexity?" display="http://www.geeksforgeeks.org/can-quicksort-implemented-onlogn-worst-case-time-complexity/"/>
-    <hyperlink ref="A135" r:id="rId132" tooltip="Permanent link to Check if a given array contains duplicate elements within k distance from each other" display="http://www.geeksforgeeks.org/check-given-array-contains-duplicate-elements-within-k-distance/"/>
-    <hyperlink ref="A136" r:id="rId133" tooltip="Permalink to Find the element that appears once" display="http://geeksquiz.com/find-the-element-that-appears-once/"/>
-    <hyperlink ref="A137" r:id="rId134" tooltip="Permalink to Replace every array element by multiplication of previous and next" display="http://geeksquiz.com/replace-every-array-element-by-multiplication-of-previous-and-next/"/>
-    <hyperlink ref="A138" r:id="rId135" tooltip="Permalink to Check if any two intervals overlap among a given set of intervals" display="http://geeksquiz.com/check-if-any-two-intervals-overlap-among-a-given-set-of-intervals/"/>
-    <hyperlink ref="A139" r:id="rId136" tooltip="Permalink to Delete an element from array (Using two traversals and one traversal)" display="http://geeksquiz.com/delete-an-element-from-array-using-two-traversals-and-one-traversal/"/>
-    <hyperlink ref="A140" r:id="rId137" tooltip="Permalink to Given a sorted array and a number x, find the pair in array whose sum is closest to x" display="http://geeksquiz.com/given-sorted-array-number-x-find-pair-array-whose-sum-closest-x/"/>
-    <hyperlink ref="A141" r:id="rId138" tooltip="Permanent link to Find the largest pair sum in an unsorted array" display="http://www.geeksforgeeks.org/find-the-largest-pair-sum-in-an-unsorted-array/"/>
-    <hyperlink ref="A142" r:id="rId139" tooltip="Permanent link to Online algorithm for checking palindrome in a stream" display="http://www.geeksforgeeks.org/online-algorithm-for-checking-palindrome-in-a-stream/"/>
-    <hyperlink ref="A143" r:id="rId140" tooltip="Permanent link to Find Union and Intersection of two unsorted arrays" display="http://www.geeksforgeeks.org/find-union-and-intersection-of-two-unsorted-arrays/"/>
-    <hyperlink ref="A144" r:id="rId141" tooltip="Permanent link to Pythagorean Triplet in an array" display="http://www.geeksforgeeks.org/find-pythagorean-triplet-in-an-unsorted-array/"/>
-    <hyperlink ref="A145" r:id="rId142" tooltip="Permanent link to Maximum profit by buying and selling a share at most twice" display="http://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/"/>
-    <hyperlink ref="A146" r:id="rId143" display="http://www.geeksforgeeks.org/count-frequencies-elements-array-o1-extra-space-time/"/>
-    <hyperlink ref="A147" r:id="rId144" display="http://www.geeksforgeeks.org/generate-all-possible-sorted-arrays-from-alternate-elements-of-two-given-arrays/"/>
-    <hyperlink ref="A148" r:id="rId145" display="http://www.geeksforgeeks.org/minimum-number-of-swaps-required-for-arranging-pairs-adjacent-to-each-other/"/>
+    <hyperlink ref="A118" r:id="rId115" tooltip="Permanent link to Sort an array in wave form" display="http://www.geeksforgeeks.org/sort-array-wave-form-2/"/>
+    <hyperlink ref="A119" r:id="rId116" tooltip="Permanent link to K’th Smallest/Largest Element in Unsorted Array" display="http://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/"/>
+    <hyperlink ref="A120" r:id="rId117" display="http://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array-set-2-expected-linear-time/"/>
+    <hyperlink ref="A121" r:id="rId118" tooltip="Permanent link to K’th Smallest/Largest Element in Unsorted Array | Set 3 (Worst Case Linear Time)" display="http://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array-set-3-worst-case-linear-time/"/>
+    <hyperlink ref="A122" r:id="rId119" tooltip="Permanent link to Find Index of 0 to be replaced with 1 to get longest continuous sequence of 1s in a binary array" display="http://www.geeksforgeeks.org/find-index-0-replaced-1-get-longest-continuous-sequence-1s-binary-array/"/>
+    <hyperlink ref="A123" r:id="rId120" tooltip="Permanent link to Find the closest pair from two sorted arrays" display="http://www.geeksforgeeks.org/given-two-sorted-arrays-number-x-find-pair-whose-sum-closest-x/"/>
+    <hyperlink ref="A124" r:id="rId121" tooltip="Permanent link to Given a sorted array and a number x, find the pair in array whose sum is closest to x" display="http://geeksquiz.com/given-sorted-array-number-x-find-pair-array-whose-sum-closest-x/"/>
+    <hyperlink ref="A125" r:id="rId122" tooltip="Permanent link to Count 1’s in a sorted binary array" display="http://geeksquiz.com/count-1s-sorted-binary-array/"/>
+    <hyperlink ref="A126" r:id="rId123" tooltip="Permanent link to Print All Distinct Elements of a given integer array" display="http://geeksquiz.com/print-distinct-elements-given-integer-array/"/>
+    <hyperlink ref="A127" r:id="rId124" tooltip="Permanent link to Construct an array from its pair-sum array" display="http://geeksquiz.com/construct-array-pair-sum-array/"/>
+    <hyperlink ref="A128" r:id="rId125" tooltip="Permanent link to Find common elements in three sorted arrays" display="http://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/"/>
+    <hyperlink ref="A129" r:id="rId126" tooltip="Permanent link to Find the first repeating element in an array of integers" display="http://www.geeksforgeeks.org/find-first-repeating-element-array-integers/"/>
+    <hyperlink ref="A130" r:id="rId127" tooltip="Permanent link to Find the smallest positive integer value that cannot be represented as sum of any subset of a given array" display="http://www.geeksforgeeks.org/find-smallest-value-represented-sum-subset-given-array/"/>
+    <hyperlink ref="A131" r:id="rId128" tooltip="Permanent link to Rearrange an array such that ‘arr[j]’ becomes ‘i’ if  ‘arr[i]’ is ‘j’" display="http://www.geeksforgeeks.org/rearrange-array-arrj-becomes-arri-j/"/>
+    <hyperlink ref="A132" r:id="rId129" tooltip="Permanent link to Find position of an element in a sorted array of infinite numbers" display="http://www.geeksforgeeks.org/find-position-element-sorted-array-infinite-numbers/"/>
+    <hyperlink ref="A133" r:id="rId130" tooltip="Permanent link to Can QuickSort be implemented in O(nLogn) worst case time complexity?" display="http://www.geeksforgeeks.org/can-quicksort-implemented-onlogn-worst-case-time-complexity/"/>
+    <hyperlink ref="A134" r:id="rId131" tooltip="Permanent link to Check if a given array contains duplicate elements within k distance from each other" display="http://www.geeksforgeeks.org/check-given-array-contains-duplicate-elements-within-k-distance/"/>
+    <hyperlink ref="A135" r:id="rId132" tooltip="Permalink to Find the element that appears once" display="http://geeksquiz.com/find-the-element-that-appears-once/"/>
+    <hyperlink ref="A136" r:id="rId133" tooltip="Permalink to Replace every array element by multiplication of previous and next" display="http://geeksquiz.com/replace-every-array-element-by-multiplication-of-previous-and-next/"/>
+    <hyperlink ref="A137" r:id="rId134" tooltip="Permalink to Check if any two intervals overlap among a given set of intervals" display="http://geeksquiz.com/check-if-any-two-intervals-overlap-among-a-given-set-of-intervals/"/>
+    <hyperlink ref="A138" r:id="rId135" tooltip="Permalink to Delete an element from array (Using two traversals and one traversal)" display="http://geeksquiz.com/delete-an-element-from-array-using-two-traversals-and-one-traversal/"/>
+    <hyperlink ref="A139" r:id="rId136" tooltip="Permalink to Given a sorted array and a number x, find the pair in array whose sum is closest to x" display="http://geeksquiz.com/given-sorted-array-number-x-find-pair-array-whose-sum-closest-x/"/>
+    <hyperlink ref="A140" r:id="rId137" tooltip="Permanent link to Find the largest pair sum in an unsorted array" display="http://www.geeksforgeeks.org/find-the-largest-pair-sum-in-an-unsorted-array/"/>
+    <hyperlink ref="A141" r:id="rId138" tooltip="Permanent link to Online algorithm for checking palindrome in a stream" display="http://www.geeksforgeeks.org/online-algorithm-for-checking-palindrome-in-a-stream/"/>
+    <hyperlink ref="A142" r:id="rId139" tooltip="Permanent link to Find Union and Intersection of two unsorted arrays" display="http://www.geeksforgeeks.org/find-union-and-intersection-of-two-unsorted-arrays/"/>
+    <hyperlink ref="A143" r:id="rId140" tooltip="Permanent link to Pythagorean Triplet in an array" display="http://www.geeksforgeeks.org/find-pythagorean-triplet-in-an-unsorted-array/"/>
+    <hyperlink ref="A144" r:id="rId141" tooltip="Permanent link to Maximum profit by buying and selling a share at most twice" display="http://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/"/>
+    <hyperlink ref="A145" r:id="rId142" display="http://www.geeksforgeeks.org/count-frequencies-elements-array-o1-extra-space-time/"/>
+    <hyperlink ref="A146" r:id="rId143" display="http://www.geeksforgeeks.org/generate-all-possible-sorted-arrays-from-alternate-elements-of-two-given-arrays/"/>
+    <hyperlink ref="A147" r:id="rId144" display="http://www.geeksforgeeks.org/minimum-number-of-swaps-required-for-arranging-pairs-adjacent-to-each-other/"/>
+    <hyperlink ref="A148" r:id="rId145"/>
     <hyperlink ref="A149" r:id="rId146" display="http://www.geeksforgeeks.org/convert-array-into-zig-zag-fashion/"/>
-    <hyperlink ref="A150" r:id="rId147" display="http://www.geeksforgeeks.org/convert-array-into-zig-zag-fashion/"/>
-    <hyperlink ref="A151" r:id="rId148" display="http://www.geeksforgeeks.org/find-maximum-value-of-sum-iarri-with-only-rotations-on-given-array-allowed/"/>
-    <hyperlink ref="A152" r:id="rId149" display="http://www.geeksforgeeks.org/reorder-a-array-according-to-given-indexes/"/>
-    <hyperlink ref="A153" r:id="rId150" display="http://www.geeksforgeeks.org/find-zeroes-to-be-flipped-so-that-number-of-consecutive-1s-is-maximized/"/>
-    <hyperlink ref="A154" r:id="rId151" display="http://www.geeksforgeeks.org/count-triplets-with-sum-smaller-that-a-given-value/"/>
+    <hyperlink ref="A150" r:id="rId147" display="http://www.geeksforgeeks.org/find-maximum-value-of-sum-iarri-with-only-rotations-on-given-array-allowed/"/>
+    <hyperlink ref="A151" r:id="rId148" display="http://www.geeksforgeeks.org/reorder-a-array-according-to-given-indexes/"/>
+    <hyperlink ref="A152" r:id="rId149" display="http://www.geeksforgeeks.org/find-zeroes-to-be-flipped-so-that-number-of-consecutive-1s-is-maximized/"/>
+    <hyperlink ref="A153" r:id="rId150" display="http://www.geeksforgeeks.org/count-triplets-with-sum-smaller-that-a-given-value/"/>
+    <hyperlink ref="A154" r:id="rId151" display="http://www.geeksforgeeks.org/find-subarray-least-average/"/>
     <hyperlink ref="A155" r:id="rId152" display="http://www.geeksforgeeks.org/find-subarray-least-average/"/>
-    <hyperlink ref="A156" r:id="rId153" display="http://www.geeksforgeeks.org/find-subarray-least-average/"/>
-    <hyperlink ref="A157" r:id="rId154" display="http://www.geeksforgeeks.org/count-inversions-of-size-three-in-a-give-array/"/>
-    <hyperlink ref="A158" r:id="rId155" display="http://www.geeksforgeeks.org/longest-span-sum-two-binary-arrays/"/>
-    <hyperlink ref="A159" r:id="rId156" display="http://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/"/>
-    <hyperlink ref="A160" r:id="rId157" display="http://www.geeksforgeeks.org/form-minimum-number-from-given-sequence/"/>
-    <hyperlink ref="A161" r:id="rId158" display="http://www.geeksforgeeks.org/subarraysubstring-vs-subsequence-and-programs-to-generate-them/"/>
-    <hyperlink ref="A162" r:id="rId159" display="http://www.geeksforgeeks.org/count-strictly-increasing-subarrays/"/>
-    <hyperlink ref="A163" r:id="rId160" display="http://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form/"/>
-    <hyperlink ref="A164" r:id="rId161" display="http://www.geeksforgeeks.org/find-minimum-difference-pair/"/>
-    <hyperlink ref="A165" r:id="rId162" display="http://www.geeksforgeeks.org/find-lost-element-from-a-duplicated-array/"/>
-    <hyperlink ref="A166" r:id="rId163" display="http://www.geeksforgeeks.org/count-pairs-with-given-sum/"/>
-    <hyperlink ref="A167" r:id="rId164" display="http://www.geeksforgeeks.org/count-minimum-steps-get-given-desired-array/"/>
-    <hyperlink ref="A168" r:id="rId165" display="http://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/"/>
-    <hyperlink ref="A169" r:id="rId166" display="http://www.geeksforgeeks.org/minimize-the-maximum-difference-between-the-heights/"/>
+    <hyperlink ref="A156" r:id="rId153" display="http://www.geeksforgeeks.org/count-inversions-of-size-three-in-a-give-array/"/>
+    <hyperlink ref="A157" r:id="rId154" display="http://www.geeksforgeeks.org/longest-span-sum-two-binary-arrays/"/>
+    <hyperlink ref="A158" r:id="rId155" display="http://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/"/>
+    <hyperlink ref="A159" r:id="rId156" display="http://www.geeksforgeeks.org/form-minimum-number-from-given-sequence/"/>
+    <hyperlink ref="A160" r:id="rId157" display="http://www.geeksforgeeks.org/subarraysubstring-vs-subsequence-and-programs-to-generate-them/"/>
+    <hyperlink ref="A161" r:id="rId158" display="http://www.geeksforgeeks.org/count-strictly-increasing-subarrays/"/>
+    <hyperlink ref="A162" r:id="rId159" display="http://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form/"/>
+    <hyperlink ref="A163" r:id="rId160" display="http://www.geeksforgeeks.org/find-minimum-difference-pair/"/>
+    <hyperlink ref="A164" r:id="rId161" display="http://www.geeksforgeeks.org/find-lost-element-from-a-duplicated-array/"/>
+    <hyperlink ref="A165" r:id="rId162" display="http://www.geeksforgeeks.org/count-pairs-with-given-sum/"/>
+    <hyperlink ref="A166" r:id="rId163" display="http://www.geeksforgeeks.org/count-minimum-steps-get-given-desired-array/"/>
+    <hyperlink ref="A167" r:id="rId164" display="http://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/"/>
+    <hyperlink ref="A168" r:id="rId165" display="http://www.geeksforgeeks.org/minimize-the-maximum-difference-between-the-heights/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId167"/>
+  <pageSetup orientation="portrait" r:id="rId166"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial"&amp;10Page &amp;P</oddFooter>

--- a/geeksforgeeks/array/PROBLEMS_ARRAY.xlsx
+++ b/geeksforgeeks/array/PROBLEMS_ARRAY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="226">
   <si>
     <t>PROBLEMS</t>
   </si>
@@ -682,6 +682,18 @@
   </si>
   <si>
     <t xml:space="preserve">to code.. Awesome ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to code.. Awesome trick ! </t>
+  </si>
+  <si>
+    <t>randomized</t>
+  </si>
+  <si>
+    <t>to code.. Also refer doc from the folder for explanation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to code… mast logic !! &lt;3 &lt;3 </t>
   </si>
 </sst>
 </file>
@@ -803,10 +815,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Default" xfId="1"/>
@@ -1109,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1145,11 +1157,11 @@
       </c>
       <c r="B3" s="4">
         <f>COUNTIFS(A4:A998,"&lt;&gt;",B4:B998,"")</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>"TO CODE: "&amp;COUNTIFS(C4:C996,"to code*")</f>
-        <v>TO CODE: 18</v>
+        <v>TO CODE: 21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75">
@@ -1169,6 +1181,12 @@
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="12.75">
@@ -1771,7 +1789,7 @@
       <c r="B74" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1782,7 +1800,7 @@
       <c r="B75" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="12"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3" ht="12.75">
       <c r="A76" s="6" t="s">
@@ -2292,6 +2310,9 @@
       <c r="A130" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="C130" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="131" spans="1:3" ht="15" customHeight="1">
       <c r="A131" s="7" t="s">
@@ -2457,8 +2478,11 @@
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" customHeight="1">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="12" t="s">
         <v>58</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" customHeight="1">
@@ -2472,6 +2496,9 @@
     <row r="150" spans="1:3" ht="15" customHeight="1">
       <c r="A150" s="7" t="s">
         <v>60</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1">
